--- a/Data/MHV1 Pooled Testing 1percent Experiment 2 Results_prep_decoded_template.xlsx
+++ b/Data/MHV1 Pooled Testing 1percent Experiment 2 Results_prep_decoded_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiryi.IOWA\Dropbox\CS_Virus_Testing\Codes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F658E-2774-4657-82E0-CDA40F08812C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298B32F-6DDA-4467-A945-66FAC4A62739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA77264-70DF-B347-B246-8B3A8D5D0E9A}">
   <dimension ref="A1:AR232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D214" workbookViewId="0">
-      <selection activeCell="AA232" sqref="AA232"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q233" sqref="Q233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
